--- a/electronic design/esp pin mapping.xlsx
+++ b/electronic design/esp pin mapping.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e733add8f175125d/Documenten/Pim Swinkels Creative Engineering/Opdrachten/random studio/projects/Dior kinetic wall/electronic design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e733add8f175125d/Documenten/Pim Swinkels Creative Engineering/Opdrachten/Fiction Factory/Dior - kinetic Wall/Dior - kinetic wall Engineering/electronic design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{13F88AF0-670C-4E6F-BCA2-3C40FE81AF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCE8E471-F6DA-404B-906A-55B6B56C2373}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{13F88AF0-670C-4E6F-BCA2-3C40FE81AF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{675CBE8D-1DA0-451E-AC91-94F0368B07DC}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" xr2:uid="{62D6CD04-D730-40FE-9ECB-DE266D67FC03}"/>
+    <workbookView xWindow="57480" yWindow="11235" windowWidth="29040" windowHeight="15720" xr2:uid="{62D6CD04-D730-40FE-9ECB-DE266D67FC03}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="interactive_installation_V1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
   <si>
     <t>Pin</t>
   </si>
@@ -95,60 +95,9 @@
     <t>outputs PWM at boot</t>
   </si>
   <si>
-    <t>outputs PWM at boot, outputs PWM at boot</t>
-  </si>
-  <si>
     <t>Must be high during boot, outputs PWM at boot</t>
   </si>
   <si>
-    <t>motor1_step</t>
-  </si>
-  <si>
-    <t>motor2_step</t>
-  </si>
-  <si>
-    <t>motor3_step</t>
-  </si>
-  <si>
-    <t>motor4_step</t>
-  </si>
-  <si>
-    <t>motor5_step</t>
-  </si>
-  <si>
-    <t>motor6_step</t>
-  </si>
-  <si>
-    <t>motor7_step</t>
-  </si>
-  <si>
-    <t>motor8_step</t>
-  </si>
-  <si>
-    <t>lightSlot1</t>
-  </si>
-  <si>
-    <t>lightSLot2</t>
-  </si>
-  <si>
-    <t>lightSlot3</t>
-  </si>
-  <si>
-    <t>lightSlot4</t>
-  </si>
-  <si>
-    <t>lightslot5</t>
-  </si>
-  <si>
-    <t>lightslot8</t>
-  </si>
-  <si>
-    <t>lightslot7</t>
-  </si>
-  <si>
-    <t>lightslot6</t>
-  </si>
-  <si>
     <t>I2C_0</t>
   </si>
   <si>
@@ -200,31 +149,115 @@
     <t>I2C expander pin, slow behavior</t>
   </si>
   <si>
-    <t>I2CExpInt</t>
-  </si>
-  <si>
-    <t>motor1_dir</t>
-  </si>
-  <si>
-    <t>motor2_dir</t>
-  </si>
-  <si>
-    <t>motor3_dir</t>
-  </si>
-  <si>
-    <t>motor4_dir</t>
-  </si>
-  <si>
-    <t>motor5_dir</t>
-  </si>
-  <si>
-    <t>motor6_dir</t>
-  </si>
-  <si>
-    <t>motor7_dir</t>
-  </si>
-  <si>
-    <t>motor8_dir</t>
+    <t>Andreas spiess comments</t>
+  </si>
+  <si>
+    <t>only use if necessary, caution!</t>
+  </si>
+  <si>
+    <t>Best to keep for I2C</t>
+  </si>
+  <si>
+    <t>don’t use if you use inline debugger</t>
+  </si>
+  <si>
+    <t>motor_dir_1</t>
+  </si>
+  <si>
+    <t>motor_step_1</t>
+  </si>
+  <si>
+    <t>motor_dir_2</t>
+  </si>
+  <si>
+    <t>motor_step_2</t>
+  </si>
+  <si>
+    <t>motor_dir_3</t>
+  </si>
+  <si>
+    <t>motor_step_3</t>
+  </si>
+  <si>
+    <t>motor_dir_4</t>
+  </si>
+  <si>
+    <t>motor_step_4</t>
+  </si>
+  <si>
+    <t>motor_dir_5</t>
+  </si>
+  <si>
+    <t>motor_step_5</t>
+  </si>
+  <si>
+    <t>motor_dir_6</t>
+  </si>
+  <si>
+    <t>motor_step_6</t>
+  </si>
+  <si>
+    <t>motor_dir_7</t>
+  </si>
+  <si>
+    <t>motor_step_7</t>
+  </si>
+  <si>
+    <t>motor_dir_8</t>
+  </si>
+  <si>
+    <t>motor_step_8</t>
+  </si>
+  <si>
+    <t>lightSensor_1</t>
+  </si>
+  <si>
+    <t>lightSensor_2</t>
+  </si>
+  <si>
+    <t>lightSensor_3</t>
+  </si>
+  <si>
+    <t>lightSensor_4</t>
+  </si>
+  <si>
+    <t>lightSensor_5</t>
+  </si>
+  <si>
+    <t>lightSensor_6</t>
+  </si>
+  <si>
+    <t>lightSensor_7</t>
+  </si>
+  <si>
+    <t>lightSensor_8</t>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+  </si>
+  <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <t>MS2</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>internal pulldown</t>
+  </si>
+  <si>
+    <t>Internal pulldown</t>
+  </si>
+  <si>
+    <t>I2C expander Interrupt</t>
+  </si>
+  <si>
+    <t>MOTOR_ENABLE</t>
   </si>
 </sst>
 </file>
@@ -272,7 +305,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -284,13 +317,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
         </patternFill>
       </fill>
     </dxf>
@@ -310,6 +336,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,20 +639,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA74ADF2-825A-47A8-99E8-3FCFAA462051}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,154 +661,166 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -785,496 +828,514 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>53</v>
+      <c r="G49" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:C1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",B1)))</formula>
     </cfRule>

--- a/electronic design/esp pin mapping.xlsx
+++ b/electronic design/esp pin mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e733add8f175125d/Documenten/Pim Swinkels Creative Engineering/Opdrachten/Fiction Factory/Dior - kinetic Wall/Dior - kinetic wall Engineering/electronic design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="8_{13F88AF0-670C-4E6F-BCA2-3C40FE81AF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{675CBE8D-1DA0-451E-AC91-94F0368B07DC}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{13F88AF0-670C-4E6F-BCA2-3C40FE81AF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C775ACE-9DBB-4DBE-A369-4D1E0C6C9828}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="11235" windowWidth="29040" windowHeight="15720" xr2:uid="{62D6CD04-D730-40FE-9ECB-DE266D67FC03}"/>
   </bookViews>
@@ -642,7 +642,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,6 +1025,9 @@
       <c r="B29" t="s">
         <v>7</v>
       </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
@@ -1038,9 +1041,6 @@
       </c>
       <c r="D30" t="s">
         <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">

--- a/electronic design/esp pin mapping.xlsx
+++ b/electronic design/esp pin mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e733add8f175125d/Documenten/Pim Swinkels Creative Engineering/Opdrachten/Fiction Factory/Dior - kinetic Wall/Dior - kinetic wall Engineering/electronic design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="8_{13F88AF0-670C-4E6F-BCA2-3C40FE81AF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C775ACE-9DBB-4DBE-A369-4D1E0C6C9828}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{13F88AF0-670C-4E6F-BCA2-3C40FE81AF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C26F50-33C7-4913-900A-81CEAC585FFF}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="11235" windowWidth="29040" windowHeight="15720" xr2:uid="{62D6CD04-D730-40FE-9ECB-DE266D67FC03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62D6CD04-D730-40FE-9ECB-DE266D67FC03}"/>
   </bookViews>
   <sheets>
     <sheet name="interactive_installation_V1" sheetId="1" r:id="rId1"/>
@@ -641,19 +641,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA74ADF2-825A-47A8-99E8-3FCFAA462051}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -704,7 +704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -718,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -732,7 +732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -743,7 +743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -765,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -787,7 +787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -798,7 +798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -820,7 +820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -840,7 +840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -854,7 +854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -868,7 +868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -882,7 +882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -890,10 +890,10 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -901,10 +901,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -915,7 +915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -926,7 +926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -943,7 +943,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -960,7 +960,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -971,7 +971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -985,7 +985,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -999,7 +999,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>33</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>34</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>35</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>36</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>

--- a/electronic design/esp pin mapping.xlsx
+++ b/electronic design/esp pin mapping.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e733add8f175125d/Documenten/Pim Swinkels Creative Engineering/Opdrachten/Fiction Factory/Dior - kinetic Wall/Dior - kinetic wall Engineering/electronic design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{13F88AF0-670C-4E6F-BCA2-3C40FE81AF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C26F50-33C7-4913-900A-81CEAC585FFF}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{13F88AF0-670C-4E6F-BCA2-3C40FE81AF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34428C05-5DA5-4E30-A2FF-3730077DA906}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62D6CD04-D730-40FE-9ECB-DE266D67FC03}"/>
+    <workbookView xWindow="57480" yWindow="7125" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{62D6CD04-D730-40FE-9ECB-DE266D67FC03}"/>
   </bookViews>
   <sheets>
     <sheet name="interactive_installation_V1" sheetId="1" r:id="rId1"/>
+    <sheet name="permanent installations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="157">
   <si>
     <t>Pin</t>
   </si>
@@ -258,6 +259,255 @@
   </si>
   <si>
     <t>MOTOR_ENABLE</t>
+  </si>
+  <si>
+    <t>I2C_1_0</t>
+  </si>
+  <si>
+    <t>I2C_1_1</t>
+  </si>
+  <si>
+    <t>I2C_1_2</t>
+  </si>
+  <si>
+    <t>I2C_1_3</t>
+  </si>
+  <si>
+    <t>I2C_1_4</t>
+  </si>
+  <si>
+    <t>I2C_1_5</t>
+  </si>
+  <si>
+    <t>I2C_1_6</t>
+  </si>
+  <si>
+    <t>I2C_1_7</t>
+  </si>
+  <si>
+    <t>I2C_1_8</t>
+  </si>
+  <si>
+    <t>I2C_1_9</t>
+  </si>
+  <si>
+    <t>I2C_1_10</t>
+  </si>
+  <si>
+    <t>I2C_1_11</t>
+  </si>
+  <si>
+    <t>I2C_1_12</t>
+  </si>
+  <si>
+    <t>I2C_1_13</t>
+  </si>
+  <si>
+    <t>I2C_1_14</t>
+  </si>
+  <si>
+    <t>I2C_1_15</t>
+  </si>
+  <si>
+    <t>I2C_2_0</t>
+  </si>
+  <si>
+    <t>I2C_2_1</t>
+  </si>
+  <si>
+    <t>I2C_2_2</t>
+  </si>
+  <si>
+    <t>I2C_2_3</t>
+  </si>
+  <si>
+    <t>I2C_2_4</t>
+  </si>
+  <si>
+    <t>I2C_2_5</t>
+  </si>
+  <si>
+    <t>I2C_2_6</t>
+  </si>
+  <si>
+    <t>I2C_2_7</t>
+  </si>
+  <si>
+    <t>I2C_2_8</t>
+  </si>
+  <si>
+    <t>I2C_2_9</t>
+  </si>
+  <si>
+    <t>I2C_2_10</t>
+  </si>
+  <si>
+    <t>I2C_2_11</t>
+  </si>
+  <si>
+    <t>I2C_2_12</t>
+  </si>
+  <si>
+    <t>I2C_2_13</t>
+  </si>
+  <si>
+    <t>I2C_2_14</t>
+  </si>
+  <si>
+    <t>I2C_2_15</t>
+  </si>
+  <si>
+    <t>lightSensor_9</t>
+  </si>
+  <si>
+    <t>lightSensor_10</t>
+  </si>
+  <si>
+    <t>lightSensor_11</t>
+  </si>
+  <si>
+    <t>lightSensor_12</t>
+  </si>
+  <si>
+    <t>motor_dir_9</t>
+  </si>
+  <si>
+    <t>motor_dir_10</t>
+  </si>
+  <si>
+    <t>motor_dir_11</t>
+  </si>
+  <si>
+    <t>motor_dir_12</t>
+  </si>
+  <si>
+    <t>I2C_3_0</t>
+  </si>
+  <si>
+    <t>I2C_3_1</t>
+  </si>
+  <si>
+    <t>I2C_3_2</t>
+  </si>
+  <si>
+    <t>I2C_3_3</t>
+  </si>
+  <si>
+    <t>I2C_3_4</t>
+  </si>
+  <si>
+    <t>I2C_3_5</t>
+  </si>
+  <si>
+    <t>I2C_3_6</t>
+  </si>
+  <si>
+    <t>I2C_3_7</t>
+  </si>
+  <si>
+    <t>I2C_3_8</t>
+  </si>
+  <si>
+    <t>I2C_3_9</t>
+  </si>
+  <si>
+    <t>I2C_3_10</t>
+  </si>
+  <si>
+    <t>I2C_3_11</t>
+  </si>
+  <si>
+    <t>I2C_3_12</t>
+  </si>
+  <si>
+    <t>I2C_3_13</t>
+  </si>
+  <si>
+    <t>I2C_3_14</t>
+  </si>
+  <si>
+    <t>I2C_3_15</t>
+  </si>
+  <si>
+    <t>Motor_enable</t>
+  </si>
+  <si>
+    <t>motor_step_9</t>
+  </si>
+  <si>
+    <t>motor_step_10</t>
+  </si>
+  <si>
+    <t>motor_step_11</t>
+  </si>
+  <si>
+    <t>motor_step_12</t>
+  </si>
+  <si>
+    <t>DIP_switch_1</t>
+  </si>
+  <si>
+    <t>DIP_switch_2</t>
+  </si>
+  <si>
+    <t>DIP_switch_3</t>
+  </si>
+  <si>
+    <t>DIP_switch_4</t>
+  </si>
+  <si>
+    <t>DIP_switch_5</t>
+  </si>
+  <si>
+    <t>DIP_switch_6</t>
+  </si>
+  <si>
+    <t>DIP_switch_7</t>
+  </si>
+  <si>
+    <t>DIP_switch_8</t>
+  </si>
+  <si>
+    <t>N_motors_bit_0</t>
+  </si>
+  <si>
+    <t>N_motors_bit_1</t>
+  </si>
+  <si>
+    <t>N_motors_bit_2</t>
+  </si>
+  <si>
+    <t>N_motors_bit_3</t>
+  </si>
+  <si>
+    <t>N_motors_bit_4</t>
+  </si>
+  <si>
+    <t>Debug_led_1</t>
+  </si>
+  <si>
+    <t>Debug_led_2</t>
+  </si>
+  <si>
+    <t>Debug_led_3</t>
+  </si>
+  <si>
+    <t>Debug_led_4</t>
+  </si>
+  <si>
+    <t>animation_bit_0</t>
+  </si>
+  <si>
+    <t>animation_bit_1</t>
+  </si>
+  <si>
+    <t>animation_bit_2</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -305,7 +555,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -641,19 +905,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA74ADF2-825A-47A8-99E8-3FCFAA462051}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +940,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -690,7 +954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -704,7 +968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -718,7 +982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -732,7 +996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -743,7 +1007,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -754,7 +1018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -765,7 +1029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -776,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -787,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -798,7 +1062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -809,7 +1073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -820,7 +1084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -840,7 +1104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -854,7 +1118,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -868,7 +1132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -882,7 +1146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -893,7 +1157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -904,7 +1168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -915,7 +1179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -926,7 +1190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -943,7 +1207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -960,7 +1224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -971,7 +1235,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>25</v>
       </c>
@@ -985,7 +1249,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>26</v>
       </c>
@@ -999,7 +1263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1010,7 +1274,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>32</v>
       </c>
@@ -1018,7 +1282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>33</v>
       </c>
@@ -1029,7 +1293,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>34</v>
       </c>
@@ -1043,7 +1307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>35</v>
       </c>
@@ -1057,7 +1321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>36</v>
       </c>
@@ -1071,7 +1335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>39</v>
       </c>
@@ -1085,7 +1349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1099,7 +1363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1141,7 +1405,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1155,7 +1419,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1169,7 +1433,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1183,7 +1447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1461,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1214,7 +1478,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +1512,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -1265,7 +1529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -1282,7 +1546,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1563,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -1316,7 +1580,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1331,6 +1595,1147 @@
       </c>
       <c r="G49" t="s">
         <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:C1048576">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FE8CDA-8904-4B91-A7D5-99F16F487455}">
+  <dimension ref="A1:J81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
+        <v>140</v>
+      </c>
+      <c r="G71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" t="s">
+        <v>141</v>
+      </c>
+      <c r="G72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" t="s">
+        <v>70</v>
+      </c>
+      <c r="J76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1344,6 +2749,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>